--- a/inst/extdata/MassWateR_DQOAccuracy_Template.xlsx
+++ b/inst/extdata/MassWateR_DQOAccuracy_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1 ACASAK\MassWateR\Design\Templates for users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2FCA00-22D3-4804-A1EC-B988BA0E6C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2F4364-55A3-4566-8946-43A2797B5628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{20339F69-97D7-4797-B0E4-E58661B4B2FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{20339F69-97D7-4797-B0E4-E58661B4B2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy" sheetId="1" r:id="rId1"/>
@@ -229,7 +229,7 @@
     <t>The range of results values that the data quality objectives will apply to.  Create one row for each range and list them in order of lowest to highest.  Enter "all" if no ranges are specified.  For formatting, it doesn't matter whether there are spaces between the characters or not.  See below for an example of how ranges work.</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter the spike or calibration check data quality objective.  This will be used for Lab Spikes and Instrument Calibration Checks.  </t>
+    <t>Enter the spike or calibration check data quality objective.  This will be used for Lab Spikes and Instrument Calibration Checks.  This can also be used for performance evaluation samples, such as outside standards that are used to assess lab analytical accuracy.</t>
   </si>
 </sst>
 </file>
@@ -341,23 +341,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -400,6 +390,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,338 +792,338 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973C1027-43ED-409D-9786-38F45BEFD8D3}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="10" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" style="5" customWidth="1"/>
+    <col min="5" max="10" width="12.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="18">
         <v>0.1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="18">
         <v>0.1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="18">
         <v>0.01</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="18">
         <v>0.01</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="18">
         <v>10</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="18">
         <v>2400</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="18">
         <v>10</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="18">
         <v>2400</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="18">
         <v>10</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="18">
         <v>2400</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="18">
         <v>10</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="18">
         <v>2400</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1132,11 +1137,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83CEA30-4E88-458A-AFF2-D4098CA8390C}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,184 +1153,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="13">
         <v>0.1</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="12">
         <v>1500</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="17" t="s">
         <v>57</v>
       </c>
     </row>
